--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Adam15-Itga5.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Adam15-Itga5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.2390935041751</v>
+        <v>39.288329</v>
       </c>
       <c r="H2">
-        <v>28.2390935041751</v>
+        <v>117.864987</v>
       </c>
       <c r="I2">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="J2">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.5343132561471</v>
+        <v>28.72417333333333</v>
       </c>
       <c r="N2">
-        <v>26.5343132561471</v>
+        <v>86.17251999999999</v>
       </c>
       <c r="O2">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="P2">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="Q2">
-        <v>749.3049531094108</v>
+        <v>1128.524772173026</v>
       </c>
       <c r="R2">
-        <v>749.3049531094108</v>
+        <v>10156.72294955724</v>
       </c>
       <c r="S2">
-        <v>0.231546641526496</v>
+        <v>0.267642586830699</v>
       </c>
       <c r="T2">
-        <v>0.231546641526496</v>
+        <v>0.267642586830699</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.2390935041751</v>
+        <v>39.288329</v>
       </c>
       <c r="H3">
-        <v>28.2390935041751</v>
+        <v>117.864987</v>
       </c>
       <c r="I3">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="J3">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30.0876852988903</v>
+        <v>30.56986233333333</v>
       </c>
       <c r="N3">
-        <v>30.0876852988903</v>
+        <v>91.709587</v>
       </c>
       <c r="O3">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="P3">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="Q3">
-        <v>849.6489584795577</v>
+        <v>1201.038808836708</v>
       </c>
       <c r="R3">
-        <v>849.6489584795577</v>
+        <v>10809.34927953037</v>
       </c>
       <c r="S3">
-        <v>0.2625544673047164</v>
+        <v>0.2848401219072513</v>
       </c>
       <c r="T3">
-        <v>0.2625544673047164</v>
+        <v>0.2848401219072513</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.2390935041751</v>
+        <v>39.288329</v>
       </c>
       <c r="H4">
-        <v>28.2390935041751</v>
+        <v>117.864987</v>
       </c>
       <c r="I4">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="J4">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.19833392374078</v>
+        <v>8.559531999999999</v>
       </c>
       <c r="N4">
-        <v>7.19833392374078</v>
+        <v>25.678596</v>
       </c>
       <c r="O4">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="P4">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="Q4">
-        <v>203.2744247467915</v>
+        <v>336.2897093020279</v>
       </c>
       <c r="R4">
-        <v>203.2744247467915</v>
+        <v>3026.607383718252</v>
       </c>
       <c r="S4">
-        <v>0.0628148928724316</v>
+        <v>0.07975495969736572</v>
       </c>
       <c r="T4">
-        <v>0.0628148928724316</v>
+        <v>0.07975495969736572</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.2675707187607</v>
+        <v>19.344283</v>
       </c>
       <c r="H5">
-        <v>19.2675707187607</v>
+        <v>58.032849</v>
       </c>
       <c r="I5">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211948</v>
       </c>
       <c r="J5">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211947</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.5343132561471</v>
+        <v>28.72417333333333</v>
       </c>
       <c r="N5">
-        <v>26.5343132561471</v>
+        <v>86.17251999999999</v>
       </c>
       <c r="O5">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="P5">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="Q5">
-        <v>511.2517571365638</v>
+        <v>555.6485379010533</v>
       </c>
       <c r="R5">
-        <v>511.2517571365638</v>
+        <v>5000.83684110948</v>
       </c>
       <c r="S5">
-        <v>0.1579845787062426</v>
+        <v>0.1317784205712876</v>
       </c>
       <c r="T5">
-        <v>0.1579845787062426</v>
+        <v>0.1317784205712876</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.2675707187607</v>
+        <v>19.344283</v>
       </c>
       <c r="H6">
-        <v>19.2675707187607</v>
+        <v>58.032849</v>
       </c>
       <c r="I6">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211948</v>
       </c>
       <c r="J6">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211947</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.0876852988903</v>
+        <v>30.56986233333333</v>
       </c>
       <c r="N6">
-        <v>30.0876852988903</v>
+        <v>91.709587</v>
       </c>
       <c r="O6">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="P6">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="Q6">
-        <v>579.7166042601856</v>
+        <v>591.3520682470404</v>
       </c>
       <c r="R6">
-        <v>579.7166042601856</v>
+        <v>5322.168614223363</v>
       </c>
       <c r="S6">
-        <v>0.1791412591049438</v>
+        <v>0.1402459220886785</v>
       </c>
       <c r="T6">
-        <v>0.1791412591049438</v>
+        <v>0.1402459220886785</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.2675707187607</v>
+        <v>19.344283</v>
       </c>
       <c r="H7">
-        <v>19.2675707187607</v>
+        <v>58.032849</v>
       </c>
       <c r="I7">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211948</v>
       </c>
       <c r="J7">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211947</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.19833392374078</v>
+        <v>8.559531999999999</v>
       </c>
       <c r="N7">
-        <v>7.19833392374078</v>
+        <v>25.678596</v>
       </c>
       <c r="O7">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="P7">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="Q7">
-        <v>138.6944079329297</v>
+        <v>165.578009355556</v>
       </c>
       <c r="R7">
-        <v>138.6944079329297</v>
+        <v>1490.202084200004</v>
       </c>
       <c r="S7">
-        <v>0.0428586842007522</v>
+        <v>0.03926872306122861</v>
       </c>
       <c r="T7">
-        <v>0.0428586842007522</v>
+        <v>0.0392687230612286</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.19953458943409</v>
+        <v>3.509096666666667</v>
       </c>
       <c r="H8">
-        <v>3.19953458943409</v>
+        <v>10.52729</v>
       </c>
       <c r="I8">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="J8">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.5343132561471</v>
+        <v>28.72417333333333</v>
       </c>
       <c r="N8">
-        <v>26.5343132561471</v>
+        <v>86.17251999999999</v>
       </c>
       <c r="O8">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="P8">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="Q8">
-        <v>84.89745306992214</v>
+        <v>100.7959008967555</v>
       </c>
       <c r="R8">
-        <v>84.89745306992214</v>
+        <v>907.1631080707999</v>
       </c>
       <c r="S8">
-        <v>0.02623460588498663</v>
+        <v>0.0239049033952462</v>
       </c>
       <c r="T8">
-        <v>0.02623460588498663</v>
+        <v>0.02390490339524621</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.19953458943409</v>
+        <v>3.509096666666667</v>
       </c>
       <c r="H9">
-        <v>3.19953458943409</v>
+        <v>10.52729</v>
       </c>
       <c r="I9">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="J9">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.0876852988903</v>
+        <v>30.56986233333333</v>
       </c>
       <c r="N9">
-        <v>30.0876852988903</v>
+        <v>91.709587</v>
       </c>
       <c r="O9">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="P9">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="Q9">
-        <v>96.26658982980707</v>
+        <v>107.2726020143589</v>
       </c>
       <c r="R9">
-        <v>96.26658982980707</v>
+        <v>965.45341812923</v>
       </c>
       <c r="S9">
-        <v>0.02974784228210731</v>
+        <v>0.0254409273124765</v>
       </c>
       <c r="T9">
-        <v>0.02974784228210731</v>
+        <v>0.0254409273124765</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.19953458943409</v>
+        <v>3.509096666666667</v>
       </c>
       <c r="H10">
-        <v>3.19953458943409</v>
+        <v>10.52729</v>
       </c>
       <c r="I10">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="J10">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.19833392374078</v>
+        <v>8.559531999999999</v>
       </c>
       <c r="N10">
-        <v>7.19833392374078</v>
+        <v>25.678596</v>
       </c>
       <c r="O10">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="P10">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="Q10">
-        <v>23.03131837530544</v>
+        <v>30.03622520942666</v>
       </c>
       <c r="R10">
-        <v>23.03131837530544</v>
+        <v>270.32602688484</v>
       </c>
       <c r="S10">
-        <v>0.007117028117323507</v>
+        <v>0.007123435135766664</v>
       </c>
       <c r="T10">
-        <v>0.007117028117323507</v>
+        <v>0.007123435135766664</v>
       </c>
     </row>
   </sheetData>
